--- a/word/周报/第二周周报.xlsx
+++ b/word/周报/第二周周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E985F0-76A4-AB4D-9915-53C4E8AF0C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B32BD5-31F7-0C46-A065-D851FAC82817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1700" windowWidth="22200" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,9 +323,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,27 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -721,30 +721,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -763,10 +763,10 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -785,104 +785,104 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="6">
         <v>0.02</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="6">
         <v>0.02</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="6">
         <v>0.02</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="6">
         <v>0.02</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -897,46 +897,46 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -951,56 +951,56 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -1015,129 +1015,87 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17">
+      <c r="F24" s="14"/>
+      <c r="G24" s="15">
         <v>0.02</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17">
+      <c r="F25" s="14"/>
+      <c r="G25" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15">
         <v>0.02</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="H27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -1154,6 +1112,48 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
